--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -49,9 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +492,65 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WESTSIDE
+Sjr Zion, Survey</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>29AAACL1838J1ZC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>W089100169940</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4045.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>996211
+62052000
+62052000
+62046200
+48194000
+33072000
+39264099</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -495,8 +495,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WESTSIDE
-Sjr Zion, Survey</t>
+          <t xml:space="preserve">Westside
+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,12 +542,12 @@
       <c r="J2" s="2" t="inlineStr">
         <is>
           <t>996211
-62052000
-62052000
-62046200
-48194000
-33072000
-39264099</t>
+300980061004
+300988526002
+300992658003
+600000562
+300922355001
+300989351001</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -495,8 +495,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Westside
-</t>
+          <t>WESTSIDE
+UNIT OF TRENT LTD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W089100169940</t>
+          <t>W089 100169940</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,43 +495,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WESTSIDE
-UNIT OF TRENT LTD</t>
+          <t>SONOVISION ELECTRONICS
+PVT LTD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29AAACL1838J1ZC</t>
+          <t>37ABCCS7530B1ZK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W089 100169940</t>
+          <t>NDYL 3826</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>17/Feb/2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4045.01</t>
+          <t>69000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>173.91</t>
+          <t>15094</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>173.91</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>173.91</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,13 +541,66 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>996211
-300980061004
-300988526002
-300992658003
-600000562
-300922355001
-300989351001</t>
+          <t>85287219
+0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LAKSHMI AGENCIES
+No:18, Kannadasan Nagar Main Road,
+Ramapuram</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>33AABFL7718B1ZQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LA226412507098</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33725.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1440.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>15121910
+15121910
+15121910
+15180039
+15180039</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,43 +495,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SONOVISION ELECTRONICS
-PVT LTD</t>
+          <t>WESTSIDE
+Sjr Zion, Survey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37ABCCS7530B1ZK</t>
+          <t>29AAACL1838J1ZC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NDYL 3826</t>
+          <t>W089 100169940</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/Feb/2023</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>4045.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15094</t>
+          <t>173.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>173.91</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>173.91</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,66 +541,13 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>85287219
-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LAKSHMI AGENCIES
-No:18, Kannadasan Nagar Main Road,
-Ramapuram</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>33AABFL7718B1ZQ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LA226412507098</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17/07/2025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33725.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1440.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>720.00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>720.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>15121910
-15121910
-15121910
-15180039
-15180039</t>
+          <t>0
+62052000
+62052000
+62046200
+48194000
+33072000
+39264099</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>0
+          <t>996211
 62052000
 62052000
 62046200

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GST Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GST Audit Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,18 +26,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="9"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002B5D84"/>
+        <bgColor rgb="002B5D84"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,16 +72,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,138 +499,194 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="35" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Shop Name</t>
+          <t>S.No.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Vendor/Shop Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Number</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Invoice Date</t>
+          <t>Invoice No.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total Amount</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Tax Amount</t>
+          <t>Taxable Amount</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Total Tax</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SGST</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>IGST</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>HSN Code</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>HSN Codes</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>WESTSIDE
-Sjr Zion, Survey</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>WESTSIDE, Sjr Zion, Survey</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>29AAACL1838J1ZC</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>W089 100169940</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>2024-09-28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>4045.01</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>996211
-62052000
-62052000
-62046200
-48194000
-33072000
-39264099</t>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>₹4,045.01</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>₹173.91</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>₹173.91</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>₹173.91</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>₹0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>Generated for GST Audit Purposes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>Total Invoices: 1</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GST Audit Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GST Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,46 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <i val="1"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="9"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002B5D84"/>
-        <bgColor rgb="002B5D84"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -72,68 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -499,11 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -521,172 +434,119 @@
     <col width="35" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>S.No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Vendor/Shop Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Invoice No.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Taxable Amount</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Total Tax</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SGST</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>IGST</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>HSN Codes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>WESTSIDE, Sjr Zion, Survey</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>29AAACL1838J1ZC</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>W089 100169940</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-09-28</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4045.01</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>173.91</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>₹4,045.01</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>₹0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Generated for GST Audit Purposes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Total Invoices: 1</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GST Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B2B Invoices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HSN Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Document Issued" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,17 +423,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="12" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,52 +457,117 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Vendor/Shop Name</t>
+          <t>Recipient GSTIN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>GSTIN</t>
+          <t>Supplier Name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Invoice No.</t>
+          <t>Supplier Address</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Supplier GSTIN</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Taxable Amount</t>
+          <t>Invoice Number</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Total Tax</t>
+          <t>Invoice Date</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>CGST</t>
+          <t>Invoice Value</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>SGST</t>
+          <t>Place of Supply</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>IGST</t>
+          <t>Reverse Charge</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>HSN Codes</t>
+          <t>Invoice Type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HSN Code</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Item Description</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Unit Code (UQC)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Unit Rate</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Taxable Value</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tax Rate (%)</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>CGST Amount</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>SGST Amount</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>IGST Amount</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>UTGST Amount</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Cess Amount</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Discount/Abatement</t>
         </is>
       </c>
     </row>
@@ -495,54 +575,397 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WESTSIDE, Sjr Zion, Survey</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29AAACL1838J1ZC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W089 100169940</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4045.01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>996211</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>4045.01</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>S.No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HSN Code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>UQC</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Total Value</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Taxable Value</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tax Rate (%)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CGST Amount</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>SGST Amount</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IGST Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WESTSIDE, Sjr Zion, Survey</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>29AAACL1838J1ZC</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>W089 100169940</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4045.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
+          <t>996211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>62052000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>80008100.0002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80008100.0002</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>214060.1802</v>
+      </c>
+      <c r="J3" t="n">
+        <v>214060.1802</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>62046200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="J4" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>48194000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="J5" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>33072000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="J6" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>39264099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40004050.0001</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="J7" t="n">
+        <v>107030.0901</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>S.No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Document Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Document Number From</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Document Number To</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total Number</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GST Audit Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GST Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,46 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <i val="1"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="9"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002B5D84"/>
-        <bgColor rgb="002B5D84"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -72,68 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -499,11 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -521,172 +434,119 @@
     <col width="35" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>S.No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Vendor/Shop Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Invoice No.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Taxable Amount</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Total Tax</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>SGST</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>IGST</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>HSN Codes</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1">
-      <c r="A2" s="2" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>WESTSIDE, Sjr Zion, Survey</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WESTSIDE, A UNIT OF TRENT LTD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>29AAACL1838J1ZC</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>W089 100169940</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>W089100169940</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-09-28 17:41:22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>4045.01</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>388.06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>194.03</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>194.03</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>₹4,045.01</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>₹173.91</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>₹0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Generated for GST Audit Purposes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Total Invoices: 1</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 300922355001, 300989351001</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -46,8 +46,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,19 +431,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="35" customWidth="1" min="11" max="11"/>
+    <col width="40" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="25" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>S.No.</t>
@@ -491,58 +500,58 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WESTSIDE, A UNIT OF TRENT LTD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>WESTSIDE Sjr Zion, Survey</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>29AAACL1838J1ZC</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>W089100169940</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-28 17:41:22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>W089 100169940</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>4045.01</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>388.06</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>194.03</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>194.03</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 300922355001, 300989351001</t>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -432,15 +432,15 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="40" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -456,47 +456,47 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Invoice No.</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>HSN Codes</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>CGST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SGST</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IGST</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Total Tax</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Taxable Amount</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Total Tax</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>CGST</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>SGST</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>IGST</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>HSN Codes</t>
         </is>
       </c>
     </row>
@@ -511,47 +511,47 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>29AAACL1838J1ZC</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>W089 100169940</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>4045.01</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>WESTSIDE Sjr Zion, Survey</t>
+          <t>WESTSIDE Westside - Sjr Zion, Survey</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>WESTSIDE Westside - Sjr Zion, Survey</t>
+          <t>WESTSIDE Sjr Zion, Survey</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
+          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 48194000, 33072000, 39264099</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 48194000, 33072000, 39264099</t>
+          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>996211, 62052000, 62052000, 62046200, 48194000, 33072000, 39264099</t>
+          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 300922355001, 300989351001</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -552,6 +552,116 @@
       <c r="K2" s="3" t="inlineStr">
         <is>
           <t>4045.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>SONOVISION ELECTRONICS PVT LTD</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>17/Feb/2023</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>37ABCCS7530B1ZK</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>NDYL 3826</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>85287219, 0</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>15094</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>69000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>LAKSHMI AGENCIES No:18, Kannadasan Nagar Main Road, Ramapuram</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>33AABFL7718B1ZQ</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>LA226412507098</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15121910, 15121910, 15121910, 15180039, 15180039</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>1913.39</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>33725.00</t>
         </is>
       </c>
     </row>

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -52,7 +52,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -431,11 +431,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="45" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
@@ -500,13 +500,14 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="45" customHeight="1">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>WESTSIDE Sjr Zion, Survey</t>
+          <t>WESTSIDE
+Sjr Zion, Survey</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -526,7 +527,9 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>996211, 300980061004, 300988526002, 300992658003, 600000562, 300922355001, 300989351001</t>
+          <t>996211, 62052000, 62052000
+62046200, 48194000, 33072000
+39264099</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -555,13 +558,14 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="45" customHeight="1">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SONOVISION ELECTRONICS PVT LTD</t>
+          <t>SONOVISION
+ELECTRONICS PVT LTD</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -581,7 +585,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>85287219, 0</t>
+          <t>85287219</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -610,13 +614,14 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" ht="45" customHeight="1">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>LAKSHMI AGENCIES No:18, Kannadasan Nagar Main Road, Ramapuram</t>
+          <t>LAKSHMI
+AGENCIES</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -636,7 +641,8 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15121910, 15121910, 15121910, 15180039, 15180039</t>
+          <t>15121910, 15121910, 15121910
+15180039, 15180039</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -656,7 +662,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>1913.39</t>
+          <t>1506.70</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">

--- a/python_backend/output/Consolidated_Invoices_Output.xlsx
+++ b/python_backend/output/Consolidated_Invoices_Output.xlsx
@@ -46,16 +46,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,57 +441,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>S.No.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Vendor/Shop Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Invoice No.</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HSN Codes</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CGST</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SGST</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>IGST</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total Tax</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Taxable Amount</t>
         </is>
@@ -506,55 +503,53 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>WESTSIDE
-Sjr Zion, Survey</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>2024-09-28</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>29AAACL1838J1ZC</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>W089 100169940</t>
+          <t>SONOVISION
+ELECTRONICS PVT LTD</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>17/Feb/2023</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>37ABCCS7530B1ZK</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>NDYL 3826</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>996211, 62052000, 62052000
-62046200, 48194000, 33072000
-39264099</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+          <t>85287219</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>173.91</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>4045.01</t>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>15094</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>69000</t>
         </is>
       </c>
     </row>
@@ -564,53 +559,54 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SONOVISION
-ELECTRONICS PVT LTD</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>17/Feb/2023</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>37ABCCS7530B1ZK</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>NDYL 3826</t>
+          <t>LAKSHMI
+AGENCIES</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>33AABFL7718B1ZQ</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>LA226412507098</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>85287219</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>7547</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>7547</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
+          <t>15121910, 15121910, 15121910
+15180039, 15180039</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>15094</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>69000</t>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>33725.00</t>
         </is>
       </c>
     </row>
@@ -620,54 +616,227 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>LAKSHMI
-AGENCIES</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>17/07/2025</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>33AABFL7718B1ZQ</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>LA226412507098</t>
+          <t>WESTSIDE
+Sjr Zion, Survey</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>29AAACL1838J1ZC</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>W089 100169940</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15121910, 15121910, 15121910
-15180039, 15180039</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>720.00</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>720.00</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
+          <t>996211, 62052000, 62052000
+62046200, 48194000, 33072000
+39264099</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>1506.70</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>33725.00</t>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>173.91</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>4045.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Daniel store</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>IN10830126010369</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21031000</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>DANIEL STORES
+SUPER MARKET</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>E 16351-</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18063200, 18063100, 18063100
+18063200, 18063200, 18063200
+18063200, 18063200, 18063200
+18063200, 18063200, 18063200
+19053100, 19053100</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>484.27</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>484.27</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>968.54</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>6099.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Daniel store</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>IN10830126010368</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>09023020, 09023020, 09023020
+09023020, 09021090, 09021090
+21011110, 09023020</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>212.10</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>212.10</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>7069.00</t>
         </is>
       </c>
     </row>
